--- a/Notificações de Multas - Detalhamento (1).xlsx
+++ b/Notificações de Multas - Detalhamento (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\GEST-O-DE-FROTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4983" uniqueCount="1892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5013" uniqueCount="1897">
   <si>
     <t>Nº Fluig</t>
   </si>
@@ -5700,6 +5700,21 @@
   </si>
   <si>
     <t>RUA PEDRO FONSECA FILHO BAIRRO PONTA NEGRA 1415</t>
+  </si>
+  <si>
+    <t>2279253</t>
+  </si>
+  <si>
+    <t>A100034764</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>2279258</t>
+  </si>
+  <si>
+    <t>R 00207160</t>
   </si>
 </sst>
 </file>
@@ -5761,8 +5776,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R332">
-  <autoFilter ref="A1:R332"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R334">
+  <autoFilter ref="A1:R334">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="CANCELADA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="18">
     <tableColumn id="1" name="Nº Fluig"/>
     <tableColumn id="2" name="Status"/>
@@ -6050,10 +6071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R332"/>
+  <dimension ref="A1:R334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6190,7 +6211,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -6246,7 +6267,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -6302,7 +6323,7 @@
         <v>88.38</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -6358,7 +6379,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -6414,7 +6435,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -6526,7 +6547,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -6638,7 +6659,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -6750,7 +6771,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -6806,7 +6827,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -6918,7 +6939,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -6974,7 +6995,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -7030,7 +7051,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -7086,7 +7107,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -7142,7 +7163,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -7198,7 +7219,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -7254,7 +7275,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -7310,7 +7331,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -7422,7 +7443,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -7478,7 +7499,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -7534,7 +7555,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -7590,7 +7611,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -7646,7 +7667,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -7702,7 +7723,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -7758,7 +7779,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>232</v>
       </c>
@@ -7814,7 +7835,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -7870,7 +7891,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -7926,7 +7947,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>259</v>
       </c>
@@ -7982,7 +8003,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>269</v>
       </c>
@@ -8038,7 +8059,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>273</v>
       </c>
@@ -8094,7 +8115,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>281</v>
       </c>
@@ -8150,7 +8171,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>289</v>
       </c>
@@ -8206,7 +8227,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -8318,7 +8339,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>311</v>
       </c>
@@ -8374,7 +8395,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -8430,7 +8451,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -8486,7 +8507,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>337</v>
       </c>
@@ -8542,7 +8563,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -8598,7 +8619,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>353</v>
       </c>
@@ -8654,7 +8675,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>360</v>
       </c>
@@ -8710,7 +8731,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>365</v>
       </c>
@@ -8766,7 +8787,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -8822,7 +8843,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>379</v>
       </c>
@@ -8878,7 +8899,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>385</v>
       </c>
@@ -8990,7 +9011,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>400</v>
       </c>
@@ -9158,7 +9179,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>420</v>
       </c>
@@ -9214,7 +9235,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>425</v>
       </c>
@@ -9270,7 +9291,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>433</v>
       </c>
@@ -9326,7 +9347,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>437</v>
       </c>
@@ -9382,7 +9403,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>442</v>
       </c>
@@ -9438,7 +9459,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>449</v>
       </c>
@@ -9494,7 +9515,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>455</v>
       </c>
@@ -9606,7 +9627,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>463</v>
       </c>
@@ -9662,7 +9683,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>468</v>
       </c>
@@ -9718,7 +9739,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>472</v>
       </c>
@@ -9774,7 +9795,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>476</v>
       </c>
@@ -9830,7 +9851,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>479</v>
       </c>
@@ -9942,7 +9963,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>484</v>
       </c>
@@ -10054,7 +10075,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>500</v>
       </c>
@@ -10110,7 +10131,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>506</v>
       </c>
@@ -10166,7 +10187,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>514</v>
       </c>
@@ -10222,7 +10243,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>519</v>
       </c>
@@ -10278,7 +10299,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -10334,7 +10355,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>532</v>
       </c>
@@ -10390,7 +10411,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>539</v>
       </c>
@@ -10446,7 +10467,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>545</v>
       </c>
@@ -10502,7 +10523,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>551</v>
       </c>
@@ -10558,7 +10579,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>559</v>
       </c>
@@ -10614,7 +10635,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>564</v>
       </c>
@@ -10670,7 +10691,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>568</v>
       </c>
@@ -10726,7 +10747,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>576</v>
       </c>
@@ -10838,7 +10859,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>580</v>
       </c>
@@ -10894,7 +10915,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>584</v>
       </c>
@@ -10950,7 +10971,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>588</v>
       </c>
@@ -11006,7 +11027,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>593</v>
       </c>
@@ -11062,7 +11083,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>598</v>
       </c>
@@ -11118,7 +11139,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>600</v>
       </c>
@@ -11174,7 +11195,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>605</v>
       </c>
@@ -11230,7 +11251,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>609</v>
       </c>
@@ -11286,7 +11307,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>613</v>
       </c>
@@ -11342,7 +11363,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>617</v>
       </c>
@@ -11398,7 +11419,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>624</v>
       </c>
@@ -11454,7 +11475,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>629</v>
       </c>
@@ -11510,7 +11531,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>634</v>
       </c>
@@ -11566,7 +11587,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>637</v>
       </c>
@@ -11622,7 +11643,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>646</v>
       </c>
@@ -11678,7 +11699,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>650</v>
       </c>
@@ -11734,7 +11755,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>655</v>
       </c>
@@ -11790,7 +11811,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>658</v>
       </c>
@@ -11846,7 +11867,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>665</v>
       </c>
@@ -11902,7 +11923,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>673</v>
       </c>
@@ -11958,7 +11979,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>677</v>
       </c>
@@ -12014,7 +12035,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>684</v>
       </c>
@@ -12070,7 +12091,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>688</v>
       </c>
@@ -12126,7 +12147,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>694</v>
       </c>
@@ -12182,7 +12203,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>701</v>
       </c>
@@ -12238,7 +12259,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>706</v>
       </c>
@@ -12294,7 +12315,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>711</v>
       </c>
@@ -12350,7 +12371,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>714</v>
       </c>
@@ -12406,7 +12427,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>720</v>
       </c>
@@ -12462,7 +12483,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>725</v>
       </c>
@@ -12518,7 +12539,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>728</v>
       </c>
@@ -12574,7 +12595,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>736</v>
       </c>
@@ -12630,7 +12651,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>739</v>
       </c>
@@ -12686,7 +12707,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>743</v>
       </c>
@@ -12742,7 +12763,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>750</v>
       </c>
@@ -12798,7 +12819,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>754</v>
       </c>
@@ -12854,7 +12875,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>761</v>
       </c>
@@ -12966,7 +12987,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>776</v>
       </c>
@@ -13022,7 +13043,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>783</v>
       </c>
@@ -13078,7 +13099,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>790</v>
       </c>
@@ -13134,7 +13155,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>796</v>
       </c>
@@ -13190,7 +13211,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>802</v>
       </c>
@@ -13302,7 +13323,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>817</v>
       </c>
@@ -13470,7 +13491,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>828</v>
       </c>
@@ -13526,7 +13547,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>836</v>
       </c>
@@ -13582,7 +13603,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>842</v>
       </c>
@@ -13638,7 +13659,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>847</v>
       </c>
@@ -13750,7 +13771,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>859</v>
       </c>
@@ -13806,7 +13827,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>865</v>
       </c>
@@ -13862,7 +13883,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>869</v>
       </c>
@@ -13918,7 +13939,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>871</v>
       </c>
@@ -13974,7 +13995,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>880</v>
       </c>
@@ -14030,7 +14051,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>888</v>
       </c>
@@ -14086,7 +14107,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>892</v>
       </c>
@@ -14142,7 +14163,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>902</v>
       </c>
@@ -14198,7 +14219,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>909</v>
       </c>
@@ -14254,7 +14275,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>914</v>
       </c>
@@ -14310,7 +14331,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>917</v>
       </c>
@@ -14366,7 +14387,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>921</v>
       </c>
@@ -14422,7 +14443,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>926</v>
       </c>
@@ -14478,7 +14499,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>931</v>
       </c>
@@ -14590,7 +14611,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>940</v>
       </c>
@@ -14646,7 +14667,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>948</v>
       </c>
@@ -14702,7 +14723,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>954</v>
       </c>
@@ -14758,7 +14779,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>960</v>
       </c>
@@ -14814,7 +14835,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>965</v>
       </c>
@@ -14870,7 +14891,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>973</v>
       </c>
@@ -14926,7 +14947,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>979</v>
       </c>
@@ -14982,7 +15003,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>985</v>
       </c>
@@ -15038,7 +15059,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>992</v>
       </c>
@@ -15094,7 +15115,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>996</v>
       </c>
@@ -15150,7 +15171,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1001</v>
       </c>
@@ -15206,7 +15227,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1004</v>
       </c>
@@ -15262,7 +15283,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1008</v>
       </c>
@@ -15318,7 +15339,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1015</v>
       </c>
@@ -15374,7 +15395,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1021</v>
       </c>
@@ -15430,7 +15451,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1026</v>
       </c>
@@ -15486,7 +15507,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1027</v>
       </c>
@@ -15542,7 +15563,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1036</v>
       </c>
@@ -15598,7 +15619,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1042</v>
       </c>
@@ -15654,7 +15675,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1046</v>
       </c>
@@ -15710,7 +15731,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1052</v>
       </c>
@@ -15766,7 +15787,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1055</v>
       </c>
@@ -15878,7 +15899,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1065</v>
       </c>
@@ -15934,7 +15955,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1067</v>
       </c>
@@ -15990,7 +16011,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1072</v>
       </c>
@@ -16046,7 +16067,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1080</v>
       </c>
@@ -16102,7 +16123,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1088</v>
       </c>
@@ -16158,7 +16179,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1093</v>
       </c>
@@ -16214,7 +16235,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1098</v>
       </c>
@@ -16270,7 +16291,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1102</v>
       </c>
@@ -16326,7 +16347,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1107</v>
       </c>
@@ -16382,7 +16403,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1110</v>
       </c>
@@ -16438,7 +16459,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1116</v>
       </c>
@@ -16494,7 +16515,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1121</v>
       </c>
@@ -16550,7 +16571,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1125</v>
       </c>
@@ -16606,7 +16627,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1131</v>
       </c>
@@ -16662,7 +16683,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1137</v>
       </c>
@@ -16718,7 +16739,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1141</v>
       </c>
@@ -16774,7 +16795,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1145</v>
       </c>
@@ -16830,7 +16851,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1149</v>
       </c>
@@ -16886,7 +16907,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1153</v>
       </c>
@@ -16942,7 +16963,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1157</v>
       </c>
@@ -16998,7 +17019,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1161</v>
       </c>
@@ -17054,7 +17075,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1165</v>
       </c>
@@ -17110,7 +17131,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1173</v>
       </c>
@@ -17166,7 +17187,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1181</v>
       </c>
@@ -17222,7 +17243,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1188</v>
       </c>
@@ -17278,7 +17299,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1192</v>
       </c>
@@ -17334,7 +17355,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1198</v>
       </c>
@@ -17390,7 +17411,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1203</v>
       </c>
@@ -17446,7 +17467,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1210</v>
       </c>
@@ -17558,7 +17579,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1219</v>
       </c>
@@ -17614,7 +17635,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1222</v>
       </c>
@@ -17670,7 +17691,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1224</v>
       </c>
@@ -17726,7 +17747,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1231</v>
       </c>
@@ -17782,7 +17803,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1235</v>
       </c>
@@ -17838,7 +17859,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1242</v>
       </c>
@@ -17894,7 +17915,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1248</v>
       </c>
@@ -17950,7 +17971,7 @@
         <v>208.26</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1254</v>
       </c>
@@ -18006,7 +18027,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1258</v>
       </c>
@@ -18062,7 +18083,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1263</v>
       </c>
@@ -18118,7 +18139,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1269</v>
       </c>
@@ -18174,7 +18195,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1274</v>
       </c>
@@ -18230,7 +18251,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1278</v>
       </c>
@@ -18286,7 +18307,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1283</v>
       </c>
@@ -18342,7 +18363,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1287</v>
       </c>
@@ -18398,7 +18419,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1292</v>
       </c>
@@ -18454,7 +18475,7 @@
         <v>208.26</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1297</v>
       </c>
@@ -18510,7 +18531,7 @@
         <v>88.38</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1305</v>
       </c>
@@ -18566,7 +18587,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1308</v>
       </c>
@@ -18622,7 +18643,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1314</v>
       </c>
@@ -18678,7 +18699,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1321</v>
       </c>
@@ -18734,7 +18755,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1326</v>
       </c>
@@ -18790,7 +18811,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1330</v>
       </c>
@@ -18846,7 +18867,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1336</v>
       </c>
@@ -18902,7 +18923,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1341</v>
       </c>
@@ -18958,7 +18979,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1345</v>
       </c>
@@ -19014,7 +19035,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1353</v>
       </c>
@@ -19070,7 +19091,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1358</v>
       </c>
@@ -19126,7 +19147,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1365</v>
       </c>
@@ -19182,7 +19203,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1369</v>
       </c>
@@ -19238,7 +19259,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1375</v>
       </c>
@@ -19294,7 +19315,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1381</v>
       </c>
@@ -19350,7 +19371,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1387</v>
       </c>
@@ -19406,7 +19427,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1393</v>
       </c>
@@ -19462,7 +19483,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1399</v>
       </c>
@@ -19518,7 +19539,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1406</v>
       </c>
@@ -19574,7 +19595,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1414</v>
       </c>
@@ -19630,7 +19651,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1422</v>
       </c>
@@ -19686,7 +19707,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1427</v>
       </c>
@@ -19742,7 +19763,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1430</v>
       </c>
@@ -19854,7 +19875,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1444</v>
       </c>
@@ -19910,7 +19931,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1449</v>
       </c>
@@ -19966,7 +19987,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1454</v>
       </c>
@@ -20022,7 +20043,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1459</v>
       </c>
@@ -20078,7 +20099,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1465</v>
       </c>
@@ -20134,7 +20155,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1470</v>
       </c>
@@ -20190,7 +20211,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1475</v>
       </c>
@@ -20246,7 +20267,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1482</v>
       </c>
@@ -20302,7 +20323,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1487</v>
       </c>
@@ -20358,7 +20379,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1492</v>
       </c>
@@ -20414,7 +20435,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1498</v>
       </c>
@@ -20470,7 +20491,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1503</v>
       </c>
@@ -20526,7 +20547,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1508</v>
       </c>
@@ -20582,7 +20603,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1513</v>
       </c>
@@ -20638,7 +20659,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1520</v>
       </c>
@@ -20694,7 +20715,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1525</v>
       </c>
@@ -20750,7 +20771,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1533</v>
       </c>
@@ -20806,7 +20827,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1539</v>
       </c>
@@ -20862,7 +20883,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1543</v>
       </c>
@@ -20918,7 +20939,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1546</v>
       </c>
@@ -20974,7 +20995,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1551</v>
       </c>
@@ -21030,7 +21051,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1557</v>
       </c>
@@ -21086,7 +21107,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1562</v>
       </c>
@@ -21142,7 +21163,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1567</v>
       </c>
@@ -21198,7 +21219,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1573</v>
       </c>
@@ -21254,7 +21275,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1579</v>
       </c>
@@ -21310,7 +21331,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1585</v>
       </c>
@@ -21366,7 +21387,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1589</v>
       </c>
@@ -21422,7 +21443,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1593</v>
       </c>
@@ -21478,7 +21499,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1599</v>
       </c>
@@ -21534,7 +21555,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1603</v>
       </c>
@@ -21590,7 +21611,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1607</v>
       </c>
@@ -21646,7 +21667,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1612</v>
       </c>
@@ -21758,7 +21779,7 @@
         <v>880.41</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1624</v>
       </c>
@@ -21814,7 +21835,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1628</v>
       </c>
@@ -21870,7 +21891,7 @@
         <v>880.41</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1629</v>
       </c>
@@ -21926,7 +21947,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1634</v>
       </c>
@@ -21982,7 +22003,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1639</v>
       </c>
@@ -22038,7 +22059,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1645</v>
       </c>
@@ -22094,7 +22115,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1651</v>
       </c>
@@ -22150,7 +22171,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1658</v>
       </c>
@@ -22206,7 +22227,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1665</v>
       </c>
@@ -22374,7 +22395,7 @@
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1682</v>
       </c>
@@ -22430,7 +22451,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1688</v>
       </c>
@@ -22486,7 +22507,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1697</v>
       </c>
@@ -22542,7 +22563,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1702</v>
       </c>
@@ -22598,7 +22619,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1707</v>
       </c>
@@ -22654,7 +22675,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1711</v>
       </c>
@@ -22710,7 +22731,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1716</v>
       </c>
@@ -22766,7 +22787,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1720</v>
       </c>
@@ -22822,7 +22843,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1724</v>
       </c>
@@ -22878,7 +22899,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1729</v>
       </c>
@@ -22934,7 +22955,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1737</v>
       </c>
@@ -23046,7 +23067,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1742</v>
       </c>
@@ -23102,7 +23123,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1749</v>
       </c>
@@ -23214,7 +23235,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1759</v>
       </c>
@@ -23326,7 +23347,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1774</v>
       </c>
@@ -23382,7 +23403,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1777</v>
       </c>
@@ -23438,7 +23459,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1781</v>
       </c>
@@ -23494,7 +23515,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1787</v>
       </c>
@@ -23550,7 +23571,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1794</v>
       </c>
@@ -23606,7 +23627,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1798</v>
       </c>
@@ -23662,7 +23683,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1801</v>
       </c>
@@ -23718,7 +23739,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1806</v>
       </c>
@@ -23774,7 +23795,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1812</v>
       </c>
@@ -23830,7 +23851,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1817</v>
       </c>
@@ -23886,7 +23907,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1823</v>
       </c>
@@ -23942,7 +23963,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1827</v>
       </c>
@@ -23998,7 +24019,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1832</v>
       </c>
@@ -24054,7 +24075,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1839</v>
       </c>
@@ -24110,7 +24131,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1845</v>
       </c>
@@ -24166,7 +24187,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1849</v>
       </c>
@@ -24222,7 +24243,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1852</v>
       </c>
@@ -24278,7 +24299,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1856</v>
       </c>
@@ -24334,7 +24355,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1863</v>
       </c>
@@ -24390,7 +24411,7 @@
         <v>88.38</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1868</v>
       </c>
@@ -24446,7 +24467,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1872</v>
       </c>
@@ -24502,7 +24523,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1877</v>
       </c>
@@ -24558,7 +24579,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1882</v>
       </c>
@@ -24614,7 +24635,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1888</v>
       </c>
@@ -24668,6 +24689,118 @@
       </c>
       <c r="R332" s="3">
         <v>293.47000000000003</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C333" t="s">
+        <v>20</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E333" t="s">
+        <v>53</v>
+      </c>
+      <c r="F333" t="s">
+        <v>54</v>
+      </c>
+      <c r="G333" t="s">
+        <v>54</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1858</v>
+      </c>
+      <c r="I333" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J333" t="s">
+        <v>114</v>
+      </c>
+      <c r="K333" t="s">
+        <v>932</v>
+      </c>
+      <c r="L333" t="s">
+        <v>1893</v>
+      </c>
+      <c r="M333" s="1">
+        <v>45862</v>
+      </c>
+      <c r="N333" t="s">
+        <v>788</v>
+      </c>
+      <c r="O333" t="s">
+        <v>1894</v>
+      </c>
+      <c r="P333" t="s">
+        <v>1867</v>
+      </c>
+      <c r="Q333" s="2">
+        <v>45894</v>
+      </c>
+      <c r="R333" s="3">
+        <v>880.41</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C334" t="s">
+        <v>20</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E334" t="s">
+        <v>53</v>
+      </c>
+      <c r="F334" t="s">
+        <v>54</v>
+      </c>
+      <c r="G334" t="s">
+        <v>54</v>
+      </c>
+      <c r="H334" t="s">
+        <v>874</v>
+      </c>
+      <c r="I334" t="s">
+        <v>875</v>
+      </c>
+      <c r="J334" t="s">
+        <v>114</v>
+      </c>
+      <c r="K334" t="s">
+        <v>35</v>
+      </c>
+      <c r="L334" t="s">
+        <v>1896</v>
+      </c>
+      <c r="M334" s="1">
+        <v>45870</v>
+      </c>
+      <c r="N334" t="s">
+        <v>1271</v>
+      </c>
+      <c r="O334" t="s">
+        <v>1894</v>
+      </c>
+      <c r="P334" t="s">
+        <v>1811</v>
+      </c>
+      <c r="Q334" s="2">
+        <v>45894</v>
+      </c>
+      <c r="R334" s="3">
+        <v>130.16</v>
       </c>
     </row>
   </sheetData>

--- a/Notificações de Multas - Detalhamento (1).xlsx
+++ b/Notificações de Multas - Detalhamento (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\GEST-O-DE-FROTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5013" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4983" uniqueCount="1892">
   <si>
     <t>Nº Fluig</t>
   </si>
@@ -5700,21 +5700,6 @@
   </si>
   <si>
     <t>RUA PEDRO FONSECA FILHO BAIRRO PONTA NEGRA 1415</t>
-  </si>
-  <si>
-    <t>2279253</t>
-  </si>
-  <si>
-    <t>A100034764</t>
-  </si>
-  <si>
-    <t>02/10/2025</t>
-  </si>
-  <si>
-    <t>2279258</t>
-  </si>
-  <si>
-    <t>R 00207160</t>
   </si>
 </sst>
 </file>
@@ -5776,14 +5761,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R334">
-  <autoFilter ref="A1:R334">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="CANCELADA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R332">
+  <autoFilter ref="A1:R332"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Nº Fluig"/>
     <tableColumn id="2" name="Status"/>
@@ -6071,10 +6050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R334"/>
+  <dimension ref="A1:R332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,7 +6190,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -6267,7 +6246,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -6323,7 +6302,7 @@
         <v>88.38</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -6379,7 +6358,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -6435,7 +6414,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -6547,7 +6526,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -6659,7 +6638,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -6771,7 +6750,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -6827,7 +6806,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -6939,7 +6918,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -6995,7 +6974,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -7051,7 +7030,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -7107,7 +7086,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -7163,7 +7142,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -7219,7 +7198,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -7275,7 +7254,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -7331,7 +7310,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -7443,7 +7422,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -7499,7 +7478,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -7555,7 +7534,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -7611,7 +7590,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -7667,7 +7646,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -7723,7 +7702,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>228</v>
       </c>
@@ -7779,7 +7758,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>232</v>
       </c>
@@ -7835,7 +7814,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -7891,7 +7870,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -7947,7 +7926,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>259</v>
       </c>
@@ -8003,7 +7982,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>269</v>
       </c>
@@ -8059,7 +8038,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>273</v>
       </c>
@@ -8115,7 +8094,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>281</v>
       </c>
@@ -8171,7 +8150,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>289</v>
       </c>
@@ -8227,7 +8206,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -8339,7 +8318,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>311</v>
       </c>
@@ -8395,7 +8374,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -8451,7 +8430,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -8507,7 +8486,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>337</v>
       </c>
@@ -8563,7 +8542,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -8619,7 +8598,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>353</v>
       </c>
@@ -8675,7 +8654,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>360</v>
       </c>
@@ -8731,7 +8710,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>365</v>
       </c>
@@ -8787,7 +8766,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -8843,7 +8822,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>379</v>
       </c>
@@ -8899,7 +8878,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>385</v>
       </c>
@@ -9011,7 +8990,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>400</v>
       </c>
@@ -9179,7 +9158,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>420</v>
       </c>
@@ -9235,7 +9214,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>425</v>
       </c>
@@ -9291,7 +9270,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>433</v>
       </c>
@@ -9347,7 +9326,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>437</v>
       </c>
@@ -9403,7 +9382,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>442</v>
       </c>
@@ -9459,7 +9438,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>449</v>
       </c>
@@ -9515,7 +9494,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>455</v>
       </c>
@@ -9627,7 +9606,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>463</v>
       </c>
@@ -9683,7 +9662,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>468</v>
       </c>
@@ -9739,7 +9718,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>472</v>
       </c>
@@ -9795,7 +9774,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>476</v>
       </c>
@@ -9851,7 +9830,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>479</v>
       </c>
@@ -9963,7 +9942,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>484</v>
       </c>
@@ -10075,7 +10054,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>500</v>
       </c>
@@ -10131,7 +10110,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>506</v>
       </c>
@@ -10187,7 +10166,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>514</v>
       </c>
@@ -10243,7 +10222,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>519</v>
       </c>
@@ -10299,7 +10278,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -10355,7 +10334,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>532</v>
       </c>
@@ -10411,7 +10390,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>539</v>
       </c>
@@ -10467,7 +10446,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>545</v>
       </c>
@@ -10523,7 +10502,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>551</v>
       </c>
@@ -10579,7 +10558,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>559</v>
       </c>
@@ -10635,7 +10614,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>564</v>
       </c>
@@ -10691,7 +10670,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>568</v>
       </c>
@@ -10747,7 +10726,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>576</v>
       </c>
@@ -10859,7 +10838,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>580</v>
       </c>
@@ -10915,7 +10894,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>584</v>
       </c>
@@ -10971,7 +10950,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>588</v>
       </c>
@@ -11027,7 +11006,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>593</v>
       </c>
@@ -11083,7 +11062,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>598</v>
       </c>
@@ -11139,7 +11118,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>600</v>
       </c>
@@ -11195,7 +11174,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>605</v>
       </c>
@@ -11251,7 +11230,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>609</v>
       </c>
@@ -11307,7 +11286,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>613</v>
       </c>
@@ -11363,7 +11342,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>617</v>
       </c>
@@ -11419,7 +11398,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>624</v>
       </c>
@@ -11475,7 +11454,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>629</v>
       </c>
@@ -11531,7 +11510,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>634</v>
       </c>
@@ -11587,7 +11566,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>637</v>
       </c>
@@ -11643,7 +11622,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>646</v>
       </c>
@@ -11699,7 +11678,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>650</v>
       </c>
@@ -11755,7 +11734,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>655</v>
       </c>
@@ -11811,7 +11790,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>658</v>
       </c>
@@ -11867,7 +11846,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>665</v>
       </c>
@@ -11923,7 +11902,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>673</v>
       </c>
@@ -11979,7 +11958,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>677</v>
       </c>
@@ -12035,7 +12014,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>684</v>
       </c>
@@ -12091,7 +12070,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>688</v>
       </c>
@@ -12147,7 +12126,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>694</v>
       </c>
@@ -12203,7 +12182,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>701</v>
       </c>
@@ -12259,7 +12238,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>706</v>
       </c>
@@ -12315,7 +12294,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>711</v>
       </c>
@@ -12371,7 +12350,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>714</v>
       </c>
@@ -12427,7 +12406,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>720</v>
       </c>
@@ -12483,7 +12462,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>725</v>
       </c>
@@ -12539,7 +12518,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>728</v>
       </c>
@@ -12595,7 +12574,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>736</v>
       </c>
@@ -12651,7 +12630,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>739</v>
       </c>
@@ -12707,7 +12686,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>743</v>
       </c>
@@ -12763,7 +12742,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>750</v>
       </c>
@@ -12819,7 +12798,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>754</v>
       </c>
@@ -12875,7 +12854,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>761</v>
       </c>
@@ -12987,7 +12966,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>776</v>
       </c>
@@ -13043,7 +13022,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>783</v>
       </c>
@@ -13099,7 +13078,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>790</v>
       </c>
@@ -13155,7 +13134,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>796</v>
       </c>
@@ -13211,7 +13190,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>802</v>
       </c>
@@ -13323,7 +13302,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>817</v>
       </c>
@@ -13491,7 +13470,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>828</v>
       </c>
@@ -13547,7 +13526,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>836</v>
       </c>
@@ -13603,7 +13582,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>842</v>
       </c>
@@ -13659,7 +13638,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>847</v>
       </c>
@@ -13771,7 +13750,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>859</v>
       </c>
@@ -13827,7 +13806,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>865</v>
       </c>
@@ -13883,7 +13862,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>869</v>
       </c>
@@ -13939,7 +13918,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>871</v>
       </c>
@@ -13995,7 +13974,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>880</v>
       </c>
@@ -14051,7 +14030,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>888</v>
       </c>
@@ -14107,7 +14086,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>892</v>
       </c>
@@ -14163,7 +14142,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>902</v>
       </c>
@@ -14219,7 +14198,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>909</v>
       </c>
@@ -14275,7 +14254,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>914</v>
       </c>
@@ -14331,7 +14310,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>917</v>
       </c>
@@ -14387,7 +14366,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>921</v>
       </c>
@@ -14443,7 +14422,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>926</v>
       </c>
@@ -14499,7 +14478,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>931</v>
       </c>
@@ -14611,7 +14590,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>940</v>
       </c>
@@ -14667,7 +14646,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>948</v>
       </c>
@@ -14723,7 +14702,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>954</v>
       </c>
@@ -14779,7 +14758,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>960</v>
       </c>
@@ -14835,7 +14814,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>965</v>
       </c>
@@ -14891,7 +14870,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>973</v>
       </c>
@@ -14947,7 +14926,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>979</v>
       </c>
@@ -15003,7 +14982,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>985</v>
       </c>
@@ -15059,7 +15038,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>992</v>
       </c>
@@ -15115,7 +15094,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>996</v>
       </c>
@@ -15171,7 +15150,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1001</v>
       </c>
@@ -15227,7 +15206,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1004</v>
       </c>
@@ -15283,7 +15262,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1008</v>
       </c>
@@ -15339,7 +15318,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1015</v>
       </c>
@@ -15395,7 +15374,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1021</v>
       </c>
@@ -15451,7 +15430,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1026</v>
       </c>
@@ -15507,7 +15486,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1027</v>
       </c>
@@ -15563,7 +15542,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1036</v>
       </c>
@@ -15619,7 +15598,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1042</v>
       </c>
@@ -15675,7 +15654,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1046</v>
       </c>
@@ -15731,7 +15710,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1052</v>
       </c>
@@ -15787,7 +15766,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1055</v>
       </c>
@@ -15899,7 +15878,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1065</v>
       </c>
@@ -15955,7 +15934,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1067</v>
       </c>
@@ -16011,7 +15990,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1072</v>
       </c>
@@ -16067,7 +16046,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1080</v>
       </c>
@@ -16123,7 +16102,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1088</v>
       </c>
@@ -16179,7 +16158,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1093</v>
       </c>
@@ -16235,7 +16214,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1098</v>
       </c>
@@ -16291,7 +16270,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1102</v>
       </c>
@@ -16347,7 +16326,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1107</v>
       </c>
@@ -16403,7 +16382,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1110</v>
       </c>
@@ -16459,7 +16438,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1116</v>
       </c>
@@ -16515,7 +16494,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1121</v>
       </c>
@@ -16571,7 +16550,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1125</v>
       </c>
@@ -16627,7 +16606,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1131</v>
       </c>
@@ -16683,7 +16662,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1137</v>
       </c>
@@ -16739,7 +16718,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1141</v>
       </c>
@@ -16795,7 +16774,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1145</v>
       </c>
@@ -16851,7 +16830,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1149</v>
       </c>
@@ -16907,7 +16886,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1153</v>
       </c>
@@ -16963,7 +16942,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1157</v>
       </c>
@@ -17019,7 +16998,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1161</v>
       </c>
@@ -17075,7 +17054,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1165</v>
       </c>
@@ -17131,7 +17110,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1173</v>
       </c>
@@ -17187,7 +17166,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1181</v>
       </c>
@@ -17243,7 +17222,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1188</v>
       </c>
@@ -17299,7 +17278,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1192</v>
       </c>
@@ -17355,7 +17334,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1198</v>
       </c>
@@ -17411,7 +17390,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1203</v>
       </c>
@@ -17467,7 +17446,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1210</v>
       </c>
@@ -17579,7 +17558,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1219</v>
       </c>
@@ -17635,7 +17614,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1222</v>
       </c>
@@ -17691,7 +17670,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1224</v>
       </c>
@@ -17747,7 +17726,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1231</v>
       </c>
@@ -17803,7 +17782,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1235</v>
       </c>
@@ -17859,7 +17838,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1242</v>
       </c>
@@ -17915,7 +17894,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1248</v>
       </c>
@@ -17971,7 +17950,7 @@
         <v>208.26</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1254</v>
       </c>
@@ -18027,7 +18006,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1258</v>
       </c>
@@ -18083,7 +18062,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1263</v>
       </c>
@@ -18139,7 +18118,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1269</v>
       </c>
@@ -18195,7 +18174,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1274</v>
       </c>
@@ -18251,7 +18230,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1278</v>
       </c>
@@ -18307,7 +18286,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1283</v>
       </c>
@@ -18363,7 +18342,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1287</v>
       </c>
@@ -18419,7 +18398,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1292</v>
       </c>
@@ -18475,7 +18454,7 @@
         <v>208.26</v>
       </c>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1297</v>
       </c>
@@ -18531,7 +18510,7 @@
         <v>88.38</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1305</v>
       </c>
@@ -18587,7 +18566,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1308</v>
       </c>
@@ -18643,7 +18622,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1314</v>
       </c>
@@ -18699,7 +18678,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1321</v>
       </c>
@@ -18755,7 +18734,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1326</v>
       </c>
@@ -18811,7 +18790,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1330</v>
       </c>
@@ -18867,7 +18846,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1336</v>
       </c>
@@ -18923,7 +18902,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1341</v>
       </c>
@@ -18979,7 +18958,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1345</v>
       </c>
@@ -19035,7 +19014,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1353</v>
       </c>
@@ -19091,7 +19070,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1358</v>
       </c>
@@ -19147,7 +19126,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1365</v>
       </c>
@@ -19203,7 +19182,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1369</v>
       </c>
@@ -19259,7 +19238,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1375</v>
       </c>
@@ -19315,7 +19294,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1381</v>
       </c>
@@ -19371,7 +19350,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1387</v>
       </c>
@@ -19427,7 +19406,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1393</v>
       </c>
@@ -19483,7 +19462,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1399</v>
       </c>
@@ -19539,7 +19518,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1406</v>
       </c>
@@ -19595,7 +19574,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1414</v>
       </c>
@@ -19651,7 +19630,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1422</v>
       </c>
@@ -19707,7 +19686,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1427</v>
       </c>
@@ -19763,7 +19742,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1430</v>
       </c>
@@ -19875,7 +19854,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1444</v>
       </c>
@@ -19931,7 +19910,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1449</v>
       </c>
@@ -19987,7 +19966,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1454</v>
       </c>
@@ -20043,7 +20022,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1459</v>
       </c>
@@ -20099,7 +20078,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1465</v>
       </c>
@@ -20155,7 +20134,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1470</v>
       </c>
@@ -20211,7 +20190,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1475</v>
       </c>
@@ -20267,7 +20246,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1482</v>
       </c>
@@ -20323,7 +20302,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1487</v>
       </c>
@@ -20379,7 +20358,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1492</v>
       </c>
@@ -20435,7 +20414,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1498</v>
       </c>
@@ -20491,7 +20470,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1503</v>
       </c>
@@ -20547,7 +20526,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1508</v>
       </c>
@@ -20603,7 +20582,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1513</v>
       </c>
@@ -20659,7 +20638,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1520</v>
       </c>
@@ -20715,7 +20694,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1525</v>
       </c>
@@ -20771,7 +20750,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1533</v>
       </c>
@@ -20827,7 +20806,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1539</v>
       </c>
@@ -20883,7 +20862,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1543</v>
       </c>
@@ -20939,7 +20918,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1546</v>
       </c>
@@ -20995,7 +20974,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1551</v>
       </c>
@@ -21051,7 +21030,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1557</v>
       </c>
@@ -21107,7 +21086,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1562</v>
       </c>
@@ -21163,7 +21142,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1567</v>
       </c>
@@ -21219,7 +21198,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1573</v>
       </c>
@@ -21275,7 +21254,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1579</v>
       </c>
@@ -21331,7 +21310,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1585</v>
       </c>
@@ -21387,7 +21366,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1589</v>
       </c>
@@ -21443,7 +21422,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1593</v>
       </c>
@@ -21499,7 +21478,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1599</v>
       </c>
@@ -21555,7 +21534,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1603</v>
       </c>
@@ -21611,7 +21590,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1607</v>
       </c>
@@ -21667,7 +21646,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1612</v>
       </c>
@@ -21779,7 +21758,7 @@
         <v>880.41</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1624</v>
       </c>
@@ -21835,7 +21814,7 @@
         <v>1467.35</v>
       </c>
     </row>
-    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1628</v>
       </c>
@@ -21891,7 +21870,7 @@
         <v>880.41</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1629</v>
       </c>
@@ -21947,7 +21926,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1634</v>
       </c>
@@ -22003,7 +21982,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1639</v>
       </c>
@@ -22059,7 +22038,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1645</v>
       </c>
@@ -22115,7 +22094,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1651</v>
       </c>
@@ -22171,7 +22150,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1658</v>
       </c>
@@ -22227,7 +22206,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1665</v>
       </c>
@@ -22395,7 +22374,7 @@
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1682</v>
       </c>
@@ -22451,7 +22430,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1688</v>
       </c>
@@ -22507,7 +22486,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1697</v>
       </c>
@@ -22563,7 +22542,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1702</v>
       </c>
@@ -22619,7 +22598,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1707</v>
       </c>
@@ -22675,7 +22654,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1711</v>
       </c>
@@ -22731,7 +22710,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1716</v>
       </c>
@@ -22787,7 +22766,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1720</v>
       </c>
@@ -22843,7 +22822,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1724</v>
       </c>
@@ -22899,7 +22878,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1729</v>
       </c>
@@ -22955,7 +22934,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1737</v>
       </c>
@@ -23067,7 +23046,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1742</v>
       </c>
@@ -23123,7 +23102,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1749</v>
       </c>
@@ -23235,7 +23214,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1759</v>
       </c>
@@ -23347,7 +23326,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1774</v>
       </c>
@@ -23403,7 +23382,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1777</v>
       </c>
@@ -23459,7 +23438,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1781</v>
       </c>
@@ -23515,7 +23494,7 @@
         <v>293.47000000000003</v>
       </c>
     </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1787</v>
       </c>
@@ -23571,7 +23550,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1794</v>
       </c>
@@ -23627,7 +23606,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1798</v>
       </c>
@@ -23683,7 +23662,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1801</v>
       </c>
@@ -23739,7 +23718,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1806</v>
       </c>
@@ -23795,7 +23774,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1812</v>
       </c>
@@ -23851,7 +23830,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1817</v>
       </c>
@@ -23907,7 +23886,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1823</v>
       </c>
@@ -23963,7 +23942,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1827</v>
       </c>
@@ -24019,7 +23998,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1832</v>
       </c>
@@ -24075,7 +24054,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1839</v>
       </c>
@@ -24131,7 +24110,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1845</v>
       </c>
@@ -24187,7 +24166,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1849</v>
       </c>
@@ -24243,7 +24222,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1852</v>
       </c>
@@ -24299,7 +24278,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1856</v>
       </c>
@@ -24355,7 +24334,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1863</v>
       </c>
@@ -24411,7 +24390,7 @@
         <v>88.38</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1868</v>
       </c>
@@ -24467,7 +24446,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1872</v>
       </c>
@@ -24523,7 +24502,7 @@
         <v>195.23</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1877</v>
       </c>
@@ -24579,7 +24558,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1882</v>
       </c>
@@ -24635,7 +24614,7 @@
         <v>130.16</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1888</v>
       </c>
@@ -24689,118 +24668,6 @@
       </c>
       <c r="R332" s="3">
         <v>293.47000000000003</v>
-      </c>
-    </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C333" t="s">
-        <v>20</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E333" t="s">
-        <v>53</v>
-      </c>
-      <c r="F333" t="s">
-        <v>54</v>
-      </c>
-      <c r="G333" t="s">
-        <v>54</v>
-      </c>
-      <c r="H333" t="s">
-        <v>1858</v>
-      </c>
-      <c r="I333" t="s">
-        <v>1859</v>
-      </c>
-      <c r="J333" t="s">
-        <v>114</v>
-      </c>
-      <c r="K333" t="s">
-        <v>932</v>
-      </c>
-      <c r="L333" t="s">
-        <v>1893</v>
-      </c>
-      <c r="M333" s="1">
-        <v>45862</v>
-      </c>
-      <c r="N333" t="s">
-        <v>788</v>
-      </c>
-      <c r="O333" t="s">
-        <v>1894</v>
-      </c>
-      <c r="P333" t="s">
-        <v>1867</v>
-      </c>
-      <c r="Q333" s="2">
-        <v>45894</v>
-      </c>
-      <c r="R333" s="3">
-        <v>880.41</v>
-      </c>
-    </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C334" t="s">
-        <v>20</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E334" t="s">
-        <v>53</v>
-      </c>
-      <c r="F334" t="s">
-        <v>54</v>
-      </c>
-      <c r="G334" t="s">
-        <v>54</v>
-      </c>
-      <c r="H334" t="s">
-        <v>874</v>
-      </c>
-      <c r="I334" t="s">
-        <v>875</v>
-      </c>
-      <c r="J334" t="s">
-        <v>114</v>
-      </c>
-      <c r="K334" t="s">
-        <v>35</v>
-      </c>
-      <c r="L334" t="s">
-        <v>1896</v>
-      </c>
-      <c r="M334" s="1">
-        <v>45870</v>
-      </c>
-      <c r="N334" t="s">
-        <v>1271</v>
-      </c>
-      <c r="O334" t="s">
-        <v>1894</v>
-      </c>
-      <c r="P334" t="s">
-        <v>1811</v>
-      </c>
-      <c r="Q334" s="2">
-        <v>45894</v>
-      </c>
-      <c r="R334" s="3">
-        <v>130.16</v>
       </c>
     </row>
   </sheetData>
